--- a/Assets/ArtRes/Excel/TowerInfo.xlsx
+++ b/Assets/ArtRes/Excel/TowerInfo.xlsx
@@ -36,7 +36,7 @@
     <t>offsetTime</t>
   </si>
   <si>
-    <t>next</t>
+    <t>nextLev</t>
   </si>
   <si>
     <t>imgRes</t>
@@ -45,7 +45,7 @@
     <t>res</t>
   </si>
   <si>
-    <t>type</t>
+    <t>atkType</t>
   </si>
   <si>
     <t>eff</t>
@@ -54,19 +54,19 @@
     <t>加农炮1</t>
   </si>
   <si>
-    <t>TowerImg/1</t>
+    <t>TowerImg/1_1</t>
   </si>
   <si>
     <t>Tower/1_1</t>
   </si>
   <si>
-    <t>Eff/Fire1</t>
+    <t>eff/Fire1</t>
   </si>
   <si>
     <t>加农炮2</t>
   </si>
   <si>
-    <t>TowerImg/2</t>
+    <t>TowerImg/1_2</t>
   </si>
   <si>
     <t>Tower/1_2</t>
@@ -75,7 +75,7 @@
     <t>加农炮3</t>
   </si>
   <si>
-    <t>TowerImg/3</t>
+    <t>TowerImg/1_3</t>
   </si>
   <si>
     <t>Tower/1_3</t>
@@ -84,7 +84,7 @@
     <t>机枪炮1</t>
   </si>
   <si>
-    <t>TowerImg/4</t>
+    <t>TowerImg/2_1</t>
   </si>
   <si>
     <t>Tower/2_1</t>
@@ -93,7 +93,7 @@
     <t>机枪炮2</t>
   </si>
   <si>
-    <t>TowerImg/5</t>
+    <t>TowerImg/2_2</t>
   </si>
   <si>
     <t>Tower/2_2</t>
@@ -102,37 +102,37 @@
     <t>机枪炮3</t>
   </si>
   <si>
-    <t>TowerImg/6</t>
+    <t>TowerImg/2_3</t>
   </si>
   <si>
     <t>Tower/2_3</t>
   </si>
   <si>
-    <t>闪电炮1</t>
-  </si>
-  <si>
-    <t>TowerImg/7</t>
+    <t>魔法炮1</t>
+  </si>
+  <si>
+    <t>TowerImg/3_1</t>
   </si>
   <si>
     <t>Tower/3_1</t>
   </si>
   <si>
-    <t>Eff/Fire2</t>
-  </si>
-  <si>
-    <t>闪电炮2</t>
-  </si>
-  <si>
-    <t>TowerImg/8</t>
+    <t>eff/Fire2</t>
+  </si>
+  <si>
+    <t>魔法炮2</t>
+  </si>
+  <si>
+    <t>TowerImg/3_2</t>
   </si>
   <si>
     <t>Tower/3_2</t>
   </si>
   <si>
-    <t>闪电炮3</t>
-  </si>
-  <si>
-    <t>TowerImg/9</t>
+    <t>魔法炮3</t>
+  </si>
+  <si>
+    <t>TowerImg/3_3</t>
   </si>
   <si>
     <t>Tower/3_3</t>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,6 +158,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,84 +194,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,6 +285,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -294,15 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,61 +317,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,55 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,15 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,11 +528,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,7 +554,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,7 +563,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,57 +597,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,88 +673,88 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,16 +1113,16 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:K11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
